--- a/documents/2020학년도-2학기 캡스톤디자인-ezai.xlsx
+++ b/documents/2020학년도-2학기 캡스톤디자인-ezai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chayan\Documents\GitHub\EZ.ai\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD28BD1-CDC0-4545-8FAC-982AC21858BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA259E-E7DA-4480-B82A-E64F18F38011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="3450" windowWidth="28800" windowHeight="15435" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="3450" windowWidth="28800" windowHeight="15435" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.안내문(필독)" sheetId="17" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="269">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3026,9 +3026,39 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3038,71 +3068,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3122,24 +3206,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3149,70 +3215,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3254,8 +3257,11 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3287,9 +3293,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3299,9 +3302,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3410,6 +3410,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3454,9 +3457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -15659,54 +15659,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -15724,12 +15724,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="111" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -15755,21 +15755,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -15778,34 +15778,34 @@
       <c r="A7" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="113"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101" t="str">
+      <c r="B8" s="111" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>제안형</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="102" t="str">
+      <c r="F8" s="112" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="209"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
@@ -15814,31 +15814,31 @@
       <c r="A9" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1">
-      <c r="A10" s="242" t="s">
+      <c r="A10" s="243" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="229"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="230"/>
       <c r="M10" s="3" t="s">
         <v>124</v>
       </c>
@@ -15850,18 +15850,18 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24" customHeight="1">
-      <c r="A11" s="242"/>
+      <c r="A11" s="243"/>
       <c r="B11" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
       <c r="E11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="229"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="230"/>
       <c r="M11" s="3" t="s">
         <v>125</v>
       </c>
@@ -15873,18 +15873,18 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="24" customHeight="1">
-      <c r="A12" s="242"/>
+      <c r="A12" s="243"/>
       <c r="B12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
       <c r="E12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="229"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="230"/>
       <c r="M12" s="3" t="s">
         <v>126</v>
       </c>
@@ -15893,19 +15893,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1">
-      <c r="A13" s="242"/>
+      <c r="A13" s="243"/>
       <c r="B13" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
       <c r="E13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="184"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="207"/>
       <c r="M13" s="3" t="s">
         <v>204</v>
@@ -15915,18 +15915,18 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1">
-      <c r="A14" s="242"/>
+      <c r="A14" s="243"/>
       <c r="B14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="36" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="229"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="230"/>
       <c r="M14" s="3" t="s">
         <v>205</v>
       </c>
@@ -15935,80 +15935,64 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.75" customHeight="1">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="231" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="232"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="233"/>
       <c r="N15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="219.75" customHeight="1">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="234" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="235"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="236"/>
       <c r="N16" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="115.5" customHeight="1">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="240" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="241"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="242"/>
       <c r="N17" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="237" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="237"/>
-      <c r="C18" s="237"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
-      <c r="H18" s="238"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A15:H15"/>
@@ -16021,6 +16005,22 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -17172,54 +17172,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -17237,12 +17237,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="111" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -17268,21 +17268,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -17291,20 +17291,20 @@
       <c r="A7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="101" t="str">
+      <c r="B7" s="111" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>제안형</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="102" t="str">
+      <c r="F7" s="112" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="209"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
@@ -17313,25 +17313,25 @@
       <c r="A8" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="207"/>
     </row>
     <row r="9" spans="1:14" ht="138.75" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
     </row>
     <row r="10" spans="1:14" ht="177.75" customHeight="1">
       <c r="A10" s="47" t="s">
@@ -17392,16 +17392,16 @@
       <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
       <c r="M14" s="71"/>
       <c r="N14" s="71"/>
     </row>
@@ -17431,6 +17431,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B9:H9"/>
@@ -17442,13 +17449,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17512,7 +17512,7 @@
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -17702,8 +17702,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17734,54 +17734,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -17799,12 +17799,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="111" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -17830,21 +17830,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -17853,24 +17853,24 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100" t="str">
+      <c r="B7" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="str">
+      <c r="F7" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="113"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="100" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -17879,69 +17879,69 @@
       <c r="C8" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="43" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="73">
         <v>84000</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="75">
         <f>C9/$C$12</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1">
-      <c r="A10" s="118"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C10" s="73">
         <v>36000</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="125" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="75">
         <f t="shared" ref="H10:H12" si="0">C10/$C$12</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="36"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1">
-      <c r="A12" s="119"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="34" t="s">
         <v>30</v>
       </c>
@@ -17949,17 +17949,17 @@
         <f>SUM(C9:C11)</f>
         <v>120000</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21" customHeight="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -17974,16 +17974,16 @@
       <c r="E13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="104"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1">
-      <c r="A14" s="121"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="36">
         <v>1</v>
       </c>
@@ -17996,14 +17996,12 @@
       <c r="E14" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="38" t="s">
-        <v>247</v>
-      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1">
-      <c r="A15" s="121"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="36">
         <v>2</v>
       </c>
@@ -18016,14 +18014,12 @@
       <c r="E15" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="36">
         <v>3</v>
       </c>
@@ -18036,14 +18032,12 @@
       <c r="E16" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="38" t="s">
-        <v>249</v>
-      </c>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="36">
         <v>4</v>
       </c>
@@ -18056,142 +18050,157 @@
       <c r="E17" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="38" t="s">
-        <v>250</v>
-      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="36">
         <v>5</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="36">
         <v>6</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
-      <c r="A20" s="121"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="36">
         <v>7</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
-      <c r="A21" s="121"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="36">
         <v>8</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
-      <c r="A22" s="121"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="36">
         <v>9</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="36">
         <v>10</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="164.25" customHeight="1">
       <c r="A24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
     </row>
     <row r="25" spans="1:8" ht="139.5" customHeight="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="113"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="110"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="114" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="B24:H24"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A2:H2"/>
@@ -18208,23 +18217,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -18696,7 +18688,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:G37"/>
     </sheetView>
   </sheetViews>
@@ -18728,54 +18720,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -18793,12 +18785,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="101" t="str">
+      <c r="B5" s="111" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -18824,21 +18816,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -18847,223 +18839,223 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100" t="str">
+      <c r="B7" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="str">
+      <c r="F7" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="113"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
     </row>
     <row r="9" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
     </row>
     <row r="10" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A10" s="135"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
     </row>
     <row r="11" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A11" s="135"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A12" s="135"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
     </row>
     <row r="13" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A13" s="154"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="159"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="154" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="128"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="156"/>
     </row>
     <row r="16" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A16" s="129"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
     </row>
     <row r="17" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="131"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
     </row>
     <row r="18" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
     </row>
     <row r="19" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
     </row>
     <row r="20" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="131"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="126" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="134"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128"/>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A23" s="135"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
     </row>
     <row r="24" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A24" s="135"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
     </row>
     <row r="25" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A25" s="135"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
     </row>
     <row r="26" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -19078,41 +19070,41 @@
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
     </row>
     <row r="29" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="153"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
     </row>
     <row r="30" spans="1:8" ht="37.5" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="18" t="s">
         <v>56</v>
       </c>
@@ -19121,262 +19113,259 @@
       <c r="A31" s="17">
         <v>1</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="37.5" customHeight="1">
       <c r="A32" s="17">
         <v>2</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="37.5" customHeight="1">
       <c r="A33" s="17">
         <v>3</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="37.5" customHeight="1">
       <c r="A34" s="17">
         <v>4</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="37.5" customHeight="1">
       <c r="A35" s="17">
         <v>5</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="109" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="37.5" customHeight="1">
       <c r="A36" s="17">
         <v>6</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="37.5" customHeight="1">
       <c r="A37" s="17">
         <v>7</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" customHeight="1">
       <c r="A38" s="17">
         <v>8</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="37.5" customHeight="1">
       <c r="A39" s="17">
         <v>9</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="37.5" customHeight="1">
       <c r="A40" s="17">
         <v>10</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="37.5" customHeight="1">
       <c r="A41" s="17">
         <v>11</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="37.5" customHeight="1">
       <c r="A42" s="17">
         <v>12</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="37.5" customHeight="1">
       <c r="A43" s="17">
         <v>13</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="51" customHeight="1">
       <c r="A44" s="17">
         <v>14</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="38.25" customHeight="1">
       <c r="A45" s="17">
         <v>15</v>
       </c>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A46" s="144" t="s">
+      <c r="A46" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="149"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="153"/>
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" ht="17.25">
-      <c r="A47" s="144"/>
-      <c r="B47" s="141" t="s">
+      <c r="A47" s="148"/>
+      <c r="B47" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="143"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="146" t="s">
+      <c r="A48" s="149"/>
+      <c r="B48" s="150" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="147"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A9:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A22:H26"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="A29:H29"/>
@@ -19387,20 +19376,23 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
     <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A9:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A15:H20"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A22:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -19479,54 +19471,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -19538,12 +19530,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="str">
+      <c r="B5" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -19563,21 +19555,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
       <c r="J6" t="s">
         <v>45</v>
       </c>
@@ -19586,32 +19578,32 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="113"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
       <c r="J7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="175"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="176"/>
       <c r="J8" t="s">
         <v>9</v>
       </c>
@@ -19620,119 +19612,110 @@
       <c r="A9" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="104" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="113"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="113"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="104" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="113"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:11" ht="183.75" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="165"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="166"/>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" ht="34.5" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="166" t="s">
+      <c r="E14" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166" t="s">
+      <c r="F14" s="167"/>
+      <c r="G14" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="167"/>
+      <c r="H14" s="168"/>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171" t="s">
+      <c r="F15" s="172"/>
+      <c r="G15" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="172"/>
+      <c r="H15" s="173"/>
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1" ht="99" customHeight="1" thickBot="1">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -19749,6 +19732,15 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -19803,36 +19795,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -19844,22 +19836,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -19877,12 +19869,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="str">
+      <c r="B5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -19893,11 +19885,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="110"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -19909,52 +19901,52 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100" t="str">
+      <c r="B7" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="str">
+      <c r="F7" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="113"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="35" t="s">
         <v>72</v>
       </c>
@@ -19967,17 +19959,17 @@
       <c r="G8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="191"/>
+      <c r="I8" s="178"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="105" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
@@ -19985,13 +19977,13 @@
         <f>D9-E9-F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="113"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
@@ -19999,13 +19991,13 @@
         <f t="shared" ref="G10:G11" si="0">D10-E10-F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A11" s="106"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
@@ -20013,15 +20005,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="113"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A12" s="106"/>
-      <c r="B12" s="105" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="74">
         <f>SUM(D9:D11)</f>
         <v>0</v>
@@ -20038,21 +20030,21 @@
         <f>SUM(G9:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="113"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104" t="s">
+      <c r="C13" s="124"/>
+      <c r="D13" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="35" t="s">
         <v>79</v>
       </c>
@@ -20067,15 +20059,15 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A14" s="121"/>
-      <c r="B14" s="187" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="177"/>
+      <c r="D14" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="187"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="30" t="s">
         <v>106</v>
       </c>
@@ -20090,59 +20082,59 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="36"/>
       <c r="G15" s="34"/>
       <c r="H15" s="74"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="36"/>
       <c r="G16" s="34"/>
       <c r="H16" s="74"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="36"/>
       <c r="G17" s="34"/>
       <c r="H17" s="74"/>
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A18" s="121"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="36"/>
       <c r="G18" s="34"/>
       <c r="H18" s="74"/>
       <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A19" s="122"/>
-      <c r="B19" s="183" t="s">
+      <c r="A19" s="105"/>
+      <c r="B19" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
       <c r="H19" s="74">
         <f>SUM(H14:H18)</f>
         <v>50000</v>
@@ -20150,30 +20142,30 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="179"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="181"/>
     </row>
     <row r="21" spans="1:9" s="21" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="190"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" ht="56.25" customHeight="1">
       <c r="A22" s="25"/>
@@ -20184,11 +20176,11 @@
       <c r="F22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="166" t="s">
+      <c r="G22" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="168"/>
     </row>
     <row r="23" spans="1:9" s="21" customFormat="1" ht="56.25" customHeight="1">
       <c r="A23" s="25"/>
@@ -20199,52 +20191,27 @@
       <c r="F23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="166" t="s">
+      <c r="G23" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="168"/>
     </row>
     <row r="24" spans="1:9" s="21" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="182"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
@@ -20261,6 +20228,31 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -20318,36 +20310,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -20359,22 +20351,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -20392,12 +20384,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="str">
+      <c r="B5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -20408,11 +20400,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="110"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -20424,46 +20416,46 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="100" t="str">
+      <c r="B7" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100" t="str">
+      <c r="F7" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="113"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="359.25" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="114" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="204" t="s">
@@ -20478,16 +20470,16 @@
       <c r="I8" s="206"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
       <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:15" ht="216.75" customHeight="1">
@@ -20497,12 +20489,12 @@
       <c r="B10" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="209"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1">
@@ -20731,13 +20723,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I30"/>
     <mergeCell ref="A11:I11"/>
@@ -20750,6 +20735,13 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20797,36 +20789,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -20838,22 +20830,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -20871,12 +20863,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="str">
+      <c r="B5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -20887,11 +20879,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="110"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -20903,35 +20895,35 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="191"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="178"/>
     </row>
     <row r="8" spans="1:15" ht="44.25" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -21031,10 +21023,10 @@
       <c r="A14" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="73">
         <f>SUM(F9:F13)</f>
         <v>0</v>
@@ -21071,6 +21063,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:I2"/>
@@ -21078,12 +21076,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -21130,36 +21122,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="107">
         <v>2020</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="107">
         <v>2</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -21171,22 +21163,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="str">
+      <c r="B4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100" t="str">
+      <c r="F4" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="113"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -21204,12 +21196,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100" t="str">
+      <c r="B5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -21220,11 +21212,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="100" t="str">
+      <c r="H5" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="113"/>
+      <c r="I5" s="110"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -21236,58 +21228,58 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100" t="str">
+      <c r="B6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="100" t="str">
+      <c r="F6" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="113"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100" t="str">
+      <c r="B8" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="100" t="str">
+      <c r="F8" s="109" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="113"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="1:15" ht="291" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -21318,19 +21310,19 @@
       <c r="I10" s="227"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="191"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" customHeight="1">
       <c r="A12" s="37" t="s">
@@ -21348,54 +21340,54 @@
       <c r="E12" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="113"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="113"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" customHeight="1">
       <c r="A14" s="28"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="113"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="113"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:15" ht="31.5" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="113"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="A17" s="29"/>
@@ -21422,17 +21414,17 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1">
       <c r="A20" s="192" t="s">
@@ -21922,11 +21914,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I17"/>
     <mergeCell ref="A19:I19"/>
@@ -21943,6 +21930,11 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/documents/2020학년도-2학기 캡스톤디자인-ezai.xlsx
+++ b/documents/2020학년도-2학기 캡스톤디자인-ezai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chayan\Documents\GitHub\EZ.ai\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA259E-E7DA-4480-B82A-E64F18F38011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37707B7F-CE1F-42C9-83A7-0576F783F832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="3450" windowWidth="28800" windowHeight="15435" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2730" windowWidth="28800" windowHeight="15435" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.안내문(필독)" sheetId="17" r:id="rId1"/>
@@ -3026,6 +3026,57 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3053,57 +3104,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3122,6 +3122,54 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3149,45 +3197,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3206,102 +3215,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3410,53 +3410,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -15659,54 +15659,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="113"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -15724,12 +15724,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="101" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -15755,21 +15755,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="113"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -15778,34 +15778,34 @@
       <c r="A7" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="101" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>제안형</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="112" t="str">
+      <c r="F8" s="102" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="102"/>
       <c r="H8" s="209"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
@@ -15814,31 +15814,31 @@
       <c r="A9" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="242" t="s">
         <v>118</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
       <c r="E10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="230"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="229"/>
       <c r="M10" s="3" t="s">
         <v>124</v>
       </c>
@@ -15850,18 +15850,18 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="24" customHeight="1">
-      <c r="A11" s="243"/>
+      <c r="A11" s="242"/>
       <c r="B11" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="230"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="229"/>
       <c r="M11" s="3" t="s">
         <v>125</v>
       </c>
@@ -15873,18 +15873,18 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="24" customHeight="1">
-      <c r="A12" s="243"/>
+      <c r="A12" s="242"/>
       <c r="B12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="230"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="229"/>
       <c r="M12" s="3" t="s">
         <v>126</v>
       </c>
@@ -15893,19 +15893,19 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1">
-      <c r="A13" s="243"/>
+      <c r="A13" s="242"/>
       <c r="B13" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="207"/>
       <c r="M13" s="3" t="s">
         <v>204</v>
@@ -15915,18 +15915,18 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1">
-      <c r="A14" s="243"/>
+      <c r="A14" s="242"/>
       <c r="B14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
       <c r="E14" s="36" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="230"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="229"/>
       <c r="M14" s="3" t="s">
         <v>205</v>
       </c>
@@ -15935,64 +15935,80 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.75" customHeight="1">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="230" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="232"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="233"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="232"/>
       <c r="N15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="219.75" customHeight="1">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="236"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="235"/>
       <c r="N16" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="115.5" customHeight="1">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="242"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="241"/>
       <c r="N17" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="239"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="A15:H15"/>
@@ -16005,22 +16021,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -17172,54 +17172,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="113"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -17237,12 +17237,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="101" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -17268,21 +17268,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="113"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -17291,20 +17291,20 @@
       <c r="A7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="111" t="str">
+      <c r="B7" s="101" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>제안형</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="112" t="str">
+      <c r="F7" s="102" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="209"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
@@ -17313,25 +17313,25 @@
       <c r="A8" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="207"/>
     </row>
     <row r="9" spans="1:14" ht="138.75" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
     </row>
     <row r="10" spans="1:14" ht="177.75" customHeight="1">
       <c r="A10" s="47" t="s">
@@ -17392,16 +17392,16 @@
       <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
       <c r="M14" s="71"/>
       <c r="N14" s="71"/>
     </row>
@@ -17431,13 +17431,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B9:H9"/>
@@ -17449,6 +17442,13 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17702,8 +17702,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17734,54 +17734,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="113"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -17799,12 +17799,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="101" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -17830,21 +17830,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="113"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -17853,24 +17853,24 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109" t="str">
+      <c r="B7" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="109" t="str">
+      <c r="F7" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="117" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -17879,69 +17879,69 @@
       <c r="C8" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="43" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1">
-      <c r="A9" s="101"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="73">
         <v>84000</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="75">
         <f>C9/$C$12</f>
         <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1">
-      <c r="A10" s="101"/>
+      <c r="A10" s="118"/>
       <c r="B10" s="36" t="s">
         <v>251</v>
       </c>
       <c r="C10" s="73">
         <v>36000</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="75">
         <f t="shared" ref="H10:H12" si="0">C10/$C$12</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1">
-      <c r="A11" s="101"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="36"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1">
-      <c r="A12" s="102"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="34" t="s">
         <v>30</v>
       </c>
@@ -17949,17 +17949,17 @@
         <f>SUM(C9:C11)</f>
         <v>120000</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
       <c r="H12" s="75">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="120" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -17974,16 +17974,16 @@
       <c r="E13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="124"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1">
-      <c r="A14" s="104"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="36">
         <v>1</v>
       </c>
@@ -17996,12 +17996,12 @@
       <c r="E14" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="21" customHeight="1">
-      <c r="A15" s="104"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="36">
         <v>2</v>
       </c>
@@ -18014,12 +18014,12 @@
       <c r="E15" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1">
-      <c r="A16" s="104"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="36">
         <v>3</v>
       </c>
@@ -18032,12 +18032,12 @@
       <c r="E16" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
       <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
-      <c r="A17" s="104"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="36">
         <v>4</v>
       </c>
@@ -18050,157 +18050,140 @@
       <c r="E17" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="36">
         <v>5</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="36">
         <v>6</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
-      <c r="A20" s="104"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="36">
         <v>7</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="36">
         <v>8</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
-      <c r="A22" s="104"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="36">
         <v>9</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
-      <c r="A23" s="105"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="36">
         <v>10</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="164.25" customHeight="1">
       <c r="A24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" ht="139.5" customHeight="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="117"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A27" s="115"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="B24:H24"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A2:H2"/>
@@ -18217,6 +18200,23 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -18688,7 +18688,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:G37"/>
     </sheetView>
   </sheetViews>
@@ -18720,54 +18720,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="113"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -18785,12 +18785,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="101" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -18816,21 +18816,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="113"/>
       <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
@@ -18839,33 +18839,33 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109" t="str">
+      <c r="B7" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="109" t="str">
+      <c r="F7" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
     </row>
     <row r="9" spans="1:14" ht="37.5" customHeight="1">
       <c r="A9" s="126" t="s">
@@ -18910,100 +18910,100 @@
       <c r="H12" s="131"/>
     </row>
     <row r="13" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="134"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="157" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="159"/>
     </row>
     <row r="16" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
     </row>
     <row r="17" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="162"/>
     </row>
     <row r="18" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="162"/>
     </row>
     <row r="19" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
     </row>
     <row r="20" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="153"/>
     </row>
     <row r="22" spans="1:8" ht="37.5" customHeight="1">
       <c r="A22" s="126" t="s">
@@ -19048,14 +19048,14 @@
       <c r="H25" s="131"/>
     </row>
     <row r="26" spans="1:8" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="134"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="20" t="s">
@@ -19070,41 +19070,41 @@
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
     </row>
     <row r="29" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
     </row>
     <row r="30" spans="1:8" ht="37.5" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="18" t="s">
         <v>56</v>
       </c>
@@ -19113,248 +19113,270 @@
       <c r="A31" s="17">
         <v>1</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="37.5" customHeight="1">
       <c r="A32" s="17">
         <v>2</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="37.5" customHeight="1">
       <c r="A33" s="17">
         <v>3</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" ht="37.5" customHeight="1">
       <c r="A34" s="17">
         <v>4</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" ht="37.5" customHeight="1">
       <c r="A35" s="17">
         <v>5</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="37.5" customHeight="1">
       <c r="A36" s="17">
         <v>6</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="37.5" customHeight="1">
       <c r="A37" s="17">
         <v>7</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" customHeight="1">
       <c r="A38" s="17">
         <v>8</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="37.5" customHeight="1">
       <c r="A39" s="17">
         <v>9</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="37.5" customHeight="1">
       <c r="A40" s="17">
         <v>10</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="37.5" customHeight="1">
       <c r="A41" s="17">
         <v>11</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" ht="37.5" customHeight="1">
       <c r="A42" s="17">
         <v>12</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" ht="37.5" customHeight="1">
       <c r="A43" s="17">
         <v>13</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" ht="51" customHeight="1">
       <c r="A44" s="17">
         <v>14</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" ht="38.25" customHeight="1">
       <c r="A45" s="17">
         <v>15</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="153"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="143"/>
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" ht="17.25">
-      <c r="A47" s="148"/>
-      <c r="B47" s="145" t="s">
+      <c r="A47" s="138"/>
+      <c r="B47" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="147"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="137"/>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A48" s="149"/>
-      <c r="B48" s="150" t="s">
+      <c r="A48" s="139"/>
+      <c r="B48" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="151"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A15:H20"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A9:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A22:H26"/>
     <mergeCell ref="B47:H47"/>
@@ -19371,28 +19393,6 @@
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A9:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A15:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -19471,54 +19471,54 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="113"/>
       <c r="J4" t="s">
         <v>15</v>
       </c>
@@ -19530,12 +19530,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -19555,21 +19555,21 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(K4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="113"/>
       <c r="J6" t="s">
         <v>45</v>
       </c>
@@ -19578,32 +19578,32 @@
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="113"/>
       <c r="J7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="175"/>
       <c r="J8" t="s">
         <v>9</v>
       </c>
@@ -19612,110 +19612,119 @@
       <c r="A9" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="124" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="113"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="113"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="124" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="113"/>
     </row>
     <row r="12" spans="1:11" ht="183.75" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:11" s="21" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="166"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165"/>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1" ht="34.5" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="167" t="s">
+      <c r="E14" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167" t="s">
+      <c r="F14" s="166"/>
+      <c r="G14" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="168"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="1:11" s="21" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172" t="s">
+      <c r="F15" s="171"/>
+      <c r="G15" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="173"/>
+      <c r="H15" s="172"/>
     </row>
     <row r="16" spans="1:11" s="21" customFormat="1" ht="99" customHeight="1" thickBot="1">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -19732,15 +19741,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -19795,36 +19795,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -19836,22 +19836,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="113"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -19869,12 +19869,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -19885,11 +19885,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="113"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -19901,52 +19901,52 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109" t="str">
+      <c r="B7" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="109" t="str">
+      <c r="F7" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="35" t="s">
         <v>72</v>
       </c>
@@ -19959,17 +19959,17 @@
       <c r="G8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="H8" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="178"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="125"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
@@ -19977,13 +19977,13 @@
         <f>D9-E9-F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
@@ -19991,13 +19991,13 @@
         <f t="shared" ref="G10:G11" si="0">D10-E10-F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
@@ -20005,15 +20005,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="113"/>
     </row>
     <row r="12" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="125" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="125"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="74">
         <f>SUM(D9:D11)</f>
         <v>0</v>
@@ -20030,21 +20030,21 @@
         <f>SUM(G9:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124" t="s">
+      <c r="C13" s="104"/>
+      <c r="D13" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="124"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="35" t="s">
         <v>79</v>
       </c>
@@ -20059,15 +20059,15 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="177" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="188" t="s">
+      <c r="C14" s="187"/>
+      <c r="D14" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="177"/>
+      <c r="E14" s="187"/>
       <c r="F14" s="30" t="s">
         <v>106</v>
       </c>
@@ -20082,59 +20082,59 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="36"/>
       <c r="G15" s="34"/>
       <c r="H15" s="74"/>
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="36"/>
       <c r="G16" s="34"/>
       <c r="H16" s="74"/>
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="36"/>
       <c r="G17" s="34"/>
       <c r="H17" s="74"/>
       <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="36"/>
       <c r="G18" s="34"/>
       <c r="H18" s="74"/>
       <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="185" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="187"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="185"/>
       <c r="H19" s="74">
         <f>SUM(H14:H18)</f>
         <v>50000</v>
@@ -20142,30 +20142,30 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="181"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="179"/>
     </row>
     <row r="21" spans="1:9" s="21" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="191"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" ht="56.25" customHeight="1">
       <c r="A22" s="25"/>
@@ -20176,11 +20176,11 @@
       <c r="F22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H22" s="167"/>
-      <c r="I22" s="168"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="1:9" s="21" customFormat="1" ht="56.25" customHeight="1">
       <c r="A23" s="25"/>
@@ -20191,27 +20191,52 @@
       <c r="F23" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="166" t="s">
         <v>213</v>
       </c>
-      <c r="H23" s="167"/>
-      <c r="I23" s="168"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
     </row>
     <row r="24" spans="1:9" s="21" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
@@ -20228,31 +20253,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -20310,36 +20310,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -20351,22 +20351,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="113"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -20384,12 +20384,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -20400,11 +20400,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="113"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -20416,46 +20416,46 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="109" t="str">
+      <c r="B7" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="109" t="str">
+      <c r="F7" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="1:15" ht="359.25" customHeight="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="204" t="s">
@@ -20470,16 +20470,16 @@
       <c r="I8" s="206"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
       <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:15" ht="216.75" customHeight="1">
@@ -20489,12 +20489,12 @@
       <c r="B10" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="209"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" thickBot="1">
@@ -20723,6 +20723,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I30"/>
     <mergeCell ref="A11:I11"/>
@@ -20735,13 +20742,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20789,36 +20789,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -20830,22 +20830,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="113"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -20863,12 +20863,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -20879,11 +20879,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="113"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -20895,35 +20895,35 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="178"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="191"/>
     </row>
     <row r="8" spans="1:15" ht="44.25" customHeight="1">
       <c r="A8" s="14" t="s">
@@ -21023,10 +21023,10 @@
       <c r="A14" s="215" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="73">
         <f>SUM(F9:F13)</f>
         <v>0</v>
@@ -21063,12 +21063,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A2:I2"/>
@@ -21076,6 +21070,12 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -21122,36 +21122,36 @@
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1">
       <c r="A3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="124">
         <v>2020</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="124">
         <v>2</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="125"/>
       <c r="N3" s="27" t="s">
         <v>75</v>
       </c>
@@ -21163,22 +21163,22 @@
       <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,2,0)</f>
         <v>공과대학</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="109" t="str">
+      <c r="F4" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,3,0)</f>
         <v>컴퓨터과학과</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="113"/>
       <c r="K4" t="s">
         <v>15</v>
       </c>
@@ -21196,12 +21196,12 @@
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,4,0)</f>
         <v>캡스톤디자인2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
@@ -21212,11 +21212,11 @@
       <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,6,0)</f>
         <v>조용주</v>
       </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="113"/>
       <c r="N5" s="27" t="s">
         <v>77</v>
       </c>
@@ -21228,58 +21228,58 @@
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="109" t="str">
+      <c r="B6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,7,0)</f>
         <v>쉽게 만드는 챗봇빌더 플랫폼</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="109" t="str">
+      <c r="F6" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,8,0)</f>
         <v>Ezai</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:15" ht="25.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="1:15" ht="25.5" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="109" t="str">
+      <c r="B8" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,9,0)</f>
         <v>소프트웨어형</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="109" t="str">
+      <c r="F8" s="100" t="str">
         <f>VLOOKUP(L4,'0.기본정보입력(필수)'!A2:L3,10,0)</f>
         <v>전공A</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="291" customHeight="1">
       <c r="A9" s="37" t="s">
@@ -21310,19 +21310,19 @@
       <c r="I10" s="227"/>
     </row>
     <row r="11" spans="1:15" ht="27" customHeight="1">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="178"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="191"/>
     </row>
     <row r="12" spans="1:15" ht="31.5" customHeight="1">
       <c r="A12" s="37" t="s">
@@ -21340,54 +21340,54 @@
       <c r="E12" s="216" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="31.5" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:15" ht="31.5" customHeight="1">
       <c r="A14" s="28"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:15" ht="31.5" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:15" ht="31.5" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="113"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="A17" s="29"/>
@@ -21414,17 +21414,17 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1">
       <c r="A20" s="192" t="s">
@@ -21914,6 +21914,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I17"/>
     <mergeCell ref="A19:I19"/>
@@ -21930,11 +21935,6 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
